--- a/data_output/prism_passive/all_passive_out_strain_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.48284697399234178</v>
+        <v>-0.48284697484625649</v>
       </c>
       <c r="C2">
-        <v>1.8905939124209604E-2</v>
+        <v>1.8905939172412897E-2</v>
       </c>
       <c r="D2">
-        <v>-2.604257987685386</v>
+        <v>-2.6042579880530532</v>
       </c>
       <c r="E2">
-        <v>-2.5960978821510037</v>
+        <v>-2.5960978814862132</v>
       </c>
       <c r="F2">
-        <v>-12.911580024690721</v>
+        <v>-12.911580024313333</v>
       </c>
       <c r="G2">
-        <v>8.9987208509325001</v>
+        <v>8.9987208508354062</v>
       </c>
       <c r="H2">
-        <v>-5.0145077956602417</v>
+        <v>-5.0145078255622737</v>
       </c>
       <c r="I2">
-        <v>7.2346923017997407</v>
+        <v>7.2346923019055476</v>
       </c>
       <c r="J2">
-        <v>5.9727335987787775</v>
+        <v>5.9727335993915673</v>
       </c>
       <c r="K2">
-        <v>-12.999379719457435</v>
+        <v>-12.999379718727402</v>
       </c>
       <c r="L2">
-        <v>7.9492615002360028</v>
+        <v>7.949261497242559</v>
       </c>
       <c r="M2">
-        <v>-0.87930790261499625</v>
+        <v>-0.87930790284149862</v>
       </c>
       <c r="N2">
-        <v>4.1019412596860087E-2</v>
+        <v>4.1019411847991669E-2</v>
       </c>
       <c r="O2">
-        <v>11.562655324982957</v>
+        <v>11.56265532520708</v>
       </c>
       <c r="P2">
-        <v>2.0037209822319033</v>
+        <v>2.0037209825022173</v>
       </c>
       <c r="Q2">
-        <v>-2.0458164061840545E-3</v>
+        <v>-2.0458162526314633E-3</v>
       </c>
       <c r="R2">
-        <v>1.9985593598151881</v>
+        <v>1.9985593599875759</v>
       </c>
       <c r="S2">
-        <v>5.8051826225404373</v>
+        <v>5.8051826231336046</v>
       </c>
       <c r="T2">
-        <v>-5.4459970314194948</v>
+        <v>-5.4459970308718999</v>
       </c>
       <c r="U2">
-        <v>7.0620431328573696</v>
+        <v>7.0620431334532903</v>
       </c>
       <c r="V2">
-        <v>-5.5682209917394996</v>
+        <v>-5.5682209914707075</v>
       </c>
       <c r="W2">
-        <v>9.9888831849770057</v>
+        <v>9.9888831852355526</v>
       </c>
       <c r="X2">
-        <v>1.4129062196762499</v>
+        <v>1.412906219323435</v>
       </c>
       <c r="Y2">
-        <v>-1.8184359501427378</v>
+        <v>-1.8184359475626313</v>
       </c>
       <c r="Z2">
-        <v>-20.371512319699512</v>
+        <v>-20.371512319785495</v>
       </c>
       <c r="AA2">
-        <v>9.6358938030415064</v>
+        <v>9.6358938045875426</v>
       </c>
       <c r="AB2">
-        <v>-1.9266088700470563E-3</v>
+        <v>-1.926609466181994E-3</v>
       </c>
       <c r="AC2">
-        <v>9.7132162147611592</v>
+        <v>9.713216215032233</v>
       </c>
       <c r="AD2">
-        <v>-3.2075845203672841</v>
+        <v>-3.2075845203368147</v>
       </c>
       <c r="AE2">
-        <v>-23.894788795672721</v>
+        <v>-23.894788795520103</v>
       </c>
       <c r="AF2">
-        <v>-0.17703399731896957</v>
+        <v>-0.17703399736557385</v>
       </c>
       <c r="AG2">
-        <v>1.4366951033606448</v>
+        <v>1.4366951034922784</v>
       </c>
       <c r="AH2">
-        <v>1.3113389930557706</v>
+        <v>1.3113389919843874</v>
       </c>
       <c r="AI2">
-        <v>58.122917186287147</v>
+        <v>58.122917186754933</v>
       </c>
       <c r="AJ2">
-        <v>-0.41764603500913577</v>
+        <v>-0.41764603498427294</v>
       </c>
       <c r="AK2">
-        <v>1.4326173701221081</v>
+        <v>1.4326173697425388</v>
       </c>
       <c r="AL2">
-        <v>-6.5378365087479127</v>
+        <v>-6.5378365083239336</v>
       </c>
       <c r="AM2">
-        <v>1.3188106961267007E-2</v>
+        <v>1.3188107041456357E-2</v>
       </c>
       <c r="AN2">
-        <v>0.88894060932663777</v>
+        <v>0.88894060938121655</v>
       </c>
       <c r="AO2">
-        <v>-2.1940755988797944</v>
+        <v>-2.1940755980956368</v>
       </c>
       <c r="AP2">
-        <v>3.4375384786403362</v>
+        <v>3.4375384793571913</v>
       </c>
       <c r="AQ2">
-        <v>0.64595821665979725</v>
+        <v>0.64595821679029553</v>
       </c>
       <c r="AR2">
-        <v>2.3647865128970107</v>
+        <v>2.3647865132163504</v>
       </c>
       <c r="AS2">
-        <v>0.74747835448430544</v>
+        <v>0.74747835468542823</v>
       </c>
       <c r="AT2">
-        <v>-0.76013445631964549</v>
+        <v>-0.76013445590209439</v>
       </c>
       <c r="AU2">
-        <v>1.8031802564583577</v>
+        <v>1.8031802563190129</v>
       </c>
       <c r="AV2">
-        <v>2.3943175526636037E-3</v>
+        <v>2.3943170842729545E-3</v>
       </c>
       <c r="AW2">
-        <v>1.8882707017615166</v>
+        <v>1.8882707001524051</v>
       </c>
       <c r="AX2">
-        <v>-2.8749855070463091</v>
+        <v>-2.8749855069444696</v>
       </c>
       <c r="AY2">
-        <v>3.7679557402554331</v>
+        <v>3.7679557403562978</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.7637282375480421</v>
+        <v>3.7637282392800815</v>
       </c>
       <c r="C3">
-        <v>0.12877229124123138</v>
+        <v>0.12877229166669821</v>
       </c>
       <c r="D3">
-        <v>1.5082266856551474</v>
+        <v>1.5082266827408339</v>
       </c>
       <c r="E3">
-        <v>-9.1343720514048918</v>
+        <v>-9.1343720509775697</v>
       </c>
       <c r="F3">
-        <v>7.5362157661398506</v>
+        <v>7.5362157667771266</v>
       </c>
       <c r="G3">
-        <v>0.4980576290326344</v>
+        <v>0.49805760935366883</v>
       </c>
       <c r="H3">
-        <v>5.6384255971249768</v>
+        <v>5.638425598368106</v>
       </c>
       <c r="I3">
-        <v>2.2500377227742923</v>
+        <v>2.2500377223041967</v>
       </c>
       <c r="J3">
-        <v>-2.668952947264213E-2</v>
+        <v>-2.668952938738034E-2</v>
       </c>
       <c r="K3">
-        <v>35.11250786531064</v>
+        <v>35.112507865929274</v>
       </c>
       <c r="L3">
-        <v>29.784542471201796</v>
+        <v>29.784542467965647</v>
       </c>
       <c r="M3">
-        <v>-0.8725237545743374</v>
+        <v>-0.87274715964795646</v>
       </c>
       <c r="N3">
-        <v>-4.7447852309966523E-2</v>
+        <v>-4.7447852136843278E-2</v>
       </c>
       <c r="O3">
-        <v>4.4244607287922415</v>
+        <v>4.4244607289395841</v>
       </c>
       <c r="P3">
-        <v>-16.477786972337942</v>
+        <v>-16.477786972698453</v>
       </c>
       <c r="Q3">
-        <v>-1.8627949241934332</v>
+        <v>-1.8627949245449951</v>
       </c>
       <c r="R3">
-        <v>7.0294045931359701</v>
+        <v>7.0294045931622806</v>
       </c>
       <c r="S3">
-        <v>7.3819954597855215</v>
+        <v>7.381995459555954</v>
       </c>
       <c r="T3">
-        <v>6.45906019876894</v>
+        <v>6.4590601986192571</v>
       </c>
       <c r="U3">
-        <v>-5.6227008536734759</v>
+        <v>-5.6227008536989036</v>
       </c>
       <c r="V3">
-        <v>6.5875497761415032</v>
+        <v>6.5875497758328159</v>
       </c>
       <c r="W3">
-        <v>4.9604081354142657</v>
+        <v>4.9604081342572295</v>
       </c>
       <c r="X3">
-        <v>11.730501845899022</v>
+        <v>11.73050184614686</v>
       </c>
       <c r="Y3">
-        <v>6.2349858214745897</v>
+        <v>6.2349858214496985</v>
       </c>
       <c r="Z3">
-        <v>-4.1814896354727074</v>
+        <v>-4.1814896356629871</v>
       </c>
       <c r="AA3">
-        <v>3.4944946242466206</v>
+        <v>3.4944946238618462</v>
       </c>
       <c r="AB3">
-        <v>-3.1210929564462593E-2</v>
+        <v>-3.1210929513433568E-2</v>
       </c>
       <c r="AC3">
-        <v>2.5249184479017792</v>
+        <v>2.5249184481946778</v>
       </c>
       <c r="AD3">
-        <v>-7.7185632424327117</v>
+        <v>-7.7185632417721486</v>
       </c>
       <c r="AE3">
-        <v>-1.2178847199788205</v>
+        <v>-1.2178847194938003</v>
       </c>
       <c r="AF3">
-        <v>1.6788546425870927</v>
+        <v>1.6788546425253763</v>
       </c>
       <c r="AG3">
-        <v>14.666513695837066</v>
+        <v>14.666513695702555</v>
       </c>
       <c r="AH3">
-        <v>7.8777714452475704</v>
+        <v>7.8777714457175598</v>
       </c>
       <c r="AI3">
-        <v>9.545542985182269E-2</v>
+        <v>9.545543065361578E-2</v>
       </c>
       <c r="AJ3">
-        <v>0.2120526230215036</v>
+        <v>0.21205262429990041</v>
       </c>
       <c r="AK3">
-        <v>35.150543810239029</v>
+        <v>35.150543802063886</v>
       </c>
       <c r="AL3">
-        <v>0.79378852504930553</v>
+        <v>0.79378852500575503</v>
       </c>
       <c r="AM3">
-        <v>3.8860318236971134E-3</v>
+        <v>3.8860319463590413E-3</v>
       </c>
       <c r="AN3">
-        <v>2.7260533537034783</v>
+        <v>2.7260533535600096</v>
       </c>
       <c r="AO3">
-        <v>12.662756453502585</v>
+        <v>12.662756453757936</v>
       </c>
       <c r="AP3">
-        <v>-4.6251116546804312</v>
+        <v>-4.6251116548413433</v>
       </c>
       <c r="AQ3">
-        <v>0.63107754851690989</v>
+        <v>0.63107754893634516</v>
       </c>
       <c r="AR3">
-        <v>-1.4010940114008938</v>
+        <v>-1.4010940111114769</v>
       </c>
       <c r="AS3">
-        <v>2.5353243836039447</v>
+        <v>2.535324382925273</v>
       </c>
       <c r="AT3">
-        <v>-0.82545639639241486</v>
+        <v>-0.82545639639455759</v>
       </c>
       <c r="AU3">
-        <v>9.0396490630292273E-2</v>
+        <v>9.0396490479789815E-2</v>
       </c>
       <c r="AV3">
-        <v>-0.52101674084367555</v>
+        <v>-0.52101674256405295</v>
       </c>
       <c r="AW3">
-        <v>-1.4600966056972369</v>
+        <v>-1.4600966153077626</v>
       </c>
       <c r="AX3">
-        <v>-23.240008844261613</v>
+        <v>-23.240008844479288</v>
       </c>
       <c r="AY3">
-        <v>-12.805821036326465</v>
+        <v>-12.805821036313292</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,313 +401,307 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>-0.48284697484625649</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.8905939172412897E-2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-2.6042579880530532</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-2.5960978814862132</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-12.911580024313333</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.9987208508354062</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.0145078255622737</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.2346923019055476</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.9727335993915673</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-12.999379718727402</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.949261497242559</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-0.87930790284149862</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.1019411847991669E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.56265532520708</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.0037209825022173</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-2.0458162526314633E-3</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.9985593599875759</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5.8051826231336046</v>
+        <v>5.8052383543679333</v>
       </c>
       <c r="T2">
-        <v>-5.4459970308718999</v>
+        <v>-5.4459754625936778</v>
       </c>
       <c r="U2">
-        <v>7.0620431334532903</v>
+        <v>7.0620769933144203</v>
       </c>
       <c r="V2">
-        <v>-5.5682209914707075</v>
+        <v>-5.5681996171035202</v>
       </c>
       <c r="W2">
-        <v>9.9888831852355526</v>
+        <v>9.9889244349342832</v>
       </c>
       <c r="X2">
-        <v>1.412906219323435</v>
+        <v>1.4128547706489591</v>
       </c>
       <c r="Y2">
-        <v>-1.8184359475626313</v>
+        <v>-1.8184585589236006</v>
       </c>
       <c r="Z2">
-        <v>-20.371512319785495</v>
+        <v>-20.371558663328965</v>
       </c>
       <c r="AA2">
-        <v>9.6358938045875426</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-1.926609466181994E-3</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>9.713216215032233</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-3.2075845203368147</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-23.894788795520103</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-0.17703399736557385</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.4366951034922784</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.3113389919843874</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>58.122917186754933</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.41764603498427294</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.4326173697425388</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-6.5378365083239336</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.3188107041456357E-2</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.88894060938121655</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-2.1940755980956368</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.4375384793571913</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.64595821679029553</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>2.3647865132163504</v>
       </c>
       <c r="AS2">
-        <v>0.74747835468542823</v>
+        <v>0.74750227201576092</v>
       </c>
       <c r="AT2">
-        <v>-0.76013445590209439</v>
+        <v>-0.76010560998884491</v>
       </c>
       <c r="AU2">
         <v>1.8031802563190129</v>
       </c>
       <c r="AV2">
-        <v>2.3943170842729545E-3</v>
+        <v>2.4127515804224977E-3</v>
       </c>
       <c r="AW2">
-        <v>1.8882707001524051</v>
+        <v>1.8882168163623259</v>
       </c>
       <c r="AX2">
-        <v>-2.8749855069444696</v>
+        <v>-2.8750267562497887</v>
       </c>
       <c r="AY2">
-        <v>3.7679557403562978</v>
+        <v>3.7679260715987408</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>3.7637282392800815</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.12877229166669821</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.5082266827408339</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-9.1343720509775697</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.5362157667771266</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.49805760935366883</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.638425598368106</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.2500377223041967</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-2.668952938738034E-2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>35.112507865929274</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>29.784542467965647</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.87274715964795646</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-4.7447852136843278E-2</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.4244607289395841</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-16.477786972698453</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-1.8627949245449951</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7.0294045931622806</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>7.381995459555954</v>
       </c>
       <c r="T3">
-        <v>6.4590601986192571</v>
+        <v>6.4590863819704607</v>
       </c>
       <c r="U3">
-        <v>-5.6227008536989036</v>
+        <v>-5.6226697050781498</v>
       </c>
       <c r="V3">
-        <v>6.5875497758328159</v>
+        <v>6.5875497758327963</v>
       </c>
       <c r="W3">
-        <v>4.9604081342572295</v>
+        <v>4.9604081342572419</v>
       </c>
       <c r="X3">
-        <v>11.73050184614686</v>
+        <v>11.730560319573424</v>
       </c>
       <c r="Y3">
-        <v>6.2349858214496985</v>
+        <v>32.644084101769991</v>
       </c>
       <c r="Z3">
-        <v>-4.1814896356629871</v>
+        <v>-8.9337332271415645E-2</v>
       </c>
       <c r="AA3">
-        <v>3.4944946238618462</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-3.1210929513433568E-2</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>2.5249184481946778</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-7.7185632417721486</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-1.2178847194938003</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.6788546425253763</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>14.666513695702555</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>7.8777714457175598</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>9.545543065361578E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.21205262429990041</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>35.150543802063886</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.79378852500575503</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.8860319463590413E-3</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.7260533535600096</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>12.662756453757936</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-4.6251116548413433</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.63107754893634516</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>-1.4010940111114769</v>
+        <v>-1.4010424383622533</v>
       </c>
       <c r="AS3">
-        <v>2.535324382925273</v>
+        <v>2.5352994546353305</v>
       </c>
       <c r="AT3">
-        <v>-0.82545639639455759</v>
+        <v>-0.82542338992865116</v>
       </c>
       <c r="AU3">
         <v>9.0396490479789815E-2</v>
       </c>
       <c r="AV3">
-        <v>-0.52101674256405295</v>
+        <v>-0.52106915675738086</v>
       </c>
       <c r="AW3">
-        <v>-1.4600966153077626</v>
+        <v>-1.4600723276797269</v>
       </c>
       <c r="AX3">
-        <v>-23.240008844479288</v>
+        <v>-21.010523313662002</v>
       </c>
       <c r="AY3">
-        <v>-12.805821036313292</v>
+        <v>21.251827583168613</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.71228360296906879</v>
+        <v>11.562596071250281</v>
       </c>
       <c r="C2">
-        <v>2.2108607306897969</v>
+        <v>1.4715207672810251</v>
       </c>
       <c r="D2">
-        <v>-2.6257548165462752</v>
+        <v>0.82064937990615228</v>
       </c>
       <c r="E2">
-        <v>-6.716848147669972</v>
+        <v>0.64227479785525987</v>
       </c>
       <c r="F2">
         <v>-14.11822582570518</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.3870879560023499</v>
+        <v>4.1569834129557313</v>
       </c>
       <c r="C3">
-        <v>1.3212247942995243</v>
+        <v>6.5977523756936236</v>
       </c>
       <c r="D3">
-        <v>1.4777273701422533</v>
+        <v>2.532526546573743</v>
       </c>
       <c r="E3">
-        <v>-9.1343720514048758</v>
+        <v>-2.1957963716064517E-2</v>
       </c>
       <c r="F3">
         <v>7.1192675843706459</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.71228360296906879</v>
+        <v>10.97115645772287</v>
       </c>
       <c r="C2">
-        <v>2.2108607306897969</v>
+        <v>11.562596071250281</v>
       </c>
       <c r="D2">
-        <v>-2.6257548165462752</v>
+        <v>8.5555184204074042</v>
       </c>
       <c r="E2">
-        <v>-6.716848147669972</v>
+        <v>0.82064937990615228</v>
       </c>
       <c r="F2">
         <v>-14.11822582570518</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.3870879560023499</v>
+        <v>28.480775705120902</v>
       </c>
       <c r="C3">
-        <v>1.3212247942995243</v>
+        <v>4.1569834129557313</v>
       </c>
       <c r="D3">
-        <v>1.4777273701422533</v>
+        <v>2.3063268374120849</v>
       </c>
       <c r="E3">
-        <v>-9.1343720514048758</v>
+        <v>2.532526546573743</v>
       </c>
       <c r="F3">
         <v>7.1192675843706459</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>-0.71228360080094377</v>
+      </c>
+      <c r="C2">
+        <v>2.210860739088595</v>
+      </c>
+      <c r="D2">
+        <v>-2.6257548170920684</v>
+      </c>
+      <c r="E2">
+        <v>-6.716848146354133</v>
+      </c>
+      <c r="F2">
+        <v>-14.118225825357204</v>
+      </c>
+      <c r="G2">
+        <v>8.6335548421791071</v>
+      </c>
+      <c r="H2">
+        <v>-5.0145384392786125</v>
+      </c>
+      <c r="I2">
+        <v>7.2346923019055476</v>
+      </c>
+      <c r="J2">
+        <v>5.9727335993916038</v>
+      </c>
+      <c r="K2">
+        <v>7.353929372600045</v>
+      </c>
+      <c r="L2">
+        <v>7.949360473416565</v>
+      </c>
+      <c r="M2">
+        <v>-1.4294436669129478</v>
+      </c>
+      <c r="N2">
         <v>10.97115645772287</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.562596071250281</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>1.6087790639414723</v>
+      </c>
+      <c r="Q2">
+        <v>-3.8031561817754431</v>
+      </c>
+      <c r="R2">
+        <v>1.4715207672810251</v>
+      </c>
+      <c r="S2">
+        <v>5.8052383543679333</v>
+      </c>
+      <c r="T2">
+        <v>-5.4582734417611167</v>
+      </c>
+      <c r="U2">
+        <v>6.7915202799865391</v>
+      </c>
+      <c r="V2">
+        <v>-5.5681996171035202</v>
+      </c>
+      <c r="W2">
+        <v>9.9889244349342832</v>
+      </c>
+      <c r="X2">
+        <v>0.83285468475891544</v>
+      </c>
+      <c r="Y2">
+        <v>-1.8569160624439653</v>
+      </c>
+      <c r="Z2">
+        <v>-20.577238326533099</v>
+      </c>
+      <c r="AA2">
+        <v>9.6358938045875302</v>
+      </c>
+      <c r="AB2">
+        <v>18.729756131983439</v>
+      </c>
+      <c r="AC2">
+        <v>9.1455179375759634</v>
+      </c>
+      <c r="AD2">
+        <v>1.6837150640669156</v>
+      </c>
+      <c r="AE2">
+        <v>-23.907443460356323</v>
+      </c>
+      <c r="AF2">
+        <v>-0.64671565330299929</v>
+      </c>
+      <c r="AG2">
+        <v>1.4367299735550056</v>
+      </c>
+      <c r="AH2">
+        <v>0.22794358854735589</v>
+      </c>
+      <c r="AI2">
+        <v>57.492725929386289</v>
+      </c>
+      <c r="AJ2">
+        <v>0.88230148460493574</v>
+      </c>
+      <c r="AK2">
+        <v>1.336534568765152</v>
+      </c>
+      <c r="AL2">
+        <v>-6.5760682004188107</v>
+      </c>
+      <c r="AM2">
         <v>8.5555184204074042</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>0.82064937990615228</v>
       </c>
-      <c r="F2">
-        <v>-14.11822582570518</v>
-      </c>
-      <c r="G2">
-        <v>8.6335548352659686</v>
-      </c>
-      <c r="H2">
-        <v>-5.0145384093765903</v>
-      </c>
-      <c r="I2">
-        <v>7.2346923017997407</v>
-      </c>
-      <c r="J2">
-        <v>5.9727335987788139</v>
-      </c>
-      <c r="K2">
-        <v>7.3539293716992233</v>
-      </c>
-      <c r="L2">
-        <v>7.9493604764100123</v>
-      </c>
-      <c r="M2">
-        <v>-1.429443672581169</v>
-      </c>
-      <c r="N2">
-        <v>10.971156458553558</v>
-      </c>
-      <c r="O2">
-        <v>11.562596071026158</v>
-      </c>
-      <c r="P2">
-        <v>1.6087790605644785</v>
-      </c>
-      <c r="Q2">
-        <v>-3.8031561819231592</v>
-      </c>
-      <c r="R2">
-        <v>1.4715207627626146</v>
-      </c>
-      <c r="S2">
-        <v>5.8052383537747643</v>
-      </c>
-      <c r="T2">
-        <v>-5.4582734441543561</v>
-      </c>
-      <c r="U2">
-        <v>6.7915202779453914</v>
-      </c>
-      <c r="V2">
-        <v>-5.5681996173723114</v>
-      </c>
-      <c r="W2">
-        <v>9.9889244346757362</v>
-      </c>
-      <c r="X2">
-        <v>0.83285468110793093</v>
-      </c>
-      <c r="Y2">
-        <v>-1.8569160657938282</v>
-      </c>
-      <c r="Z2">
-        <v>-20.577238327354188</v>
-      </c>
-      <c r="AA2">
-        <v>9.6358938030414922</v>
-      </c>
-      <c r="AB2">
-        <v>18.729756131909383</v>
-      </c>
-      <c r="AC2">
-        <v>9.1455179334763361</v>
-      </c>
-      <c r="AD2">
-        <v>1.6837150615711411</v>
-      </c>
-      <c r="AE2">
-        <v>-23.907443461760959</v>
-      </c>
-      <c r="AF2">
-        <v>-0.64671566035263917</v>
-      </c>
-      <c r="AG2">
-        <v>1.4367299734233721</v>
-      </c>
-      <c r="AH2">
-        <v>0.22794358097706943</v>
-      </c>
-      <c r="AI2">
-        <v>57.492725923033497</v>
-      </c>
-      <c r="AJ2">
-        <v>0.88230147848687313</v>
-      </c>
-      <c r="AK2">
-        <v>1.3365345688084238</v>
-      </c>
-      <c r="AL2">
-        <v>-6.5760682006061151</v>
-      </c>
-      <c r="AM2">
-        <v>8.5555184224873546</v>
-      </c>
-      <c r="AN2">
-        <v>0.82064937827992879</v>
-      </c>
       <c r="AO2">
-        <v>-2.337579055673082</v>
+        <v>-2.3375790524319306</v>
       </c>
       <c r="AP2">
-        <v>2.2731103268406403</v>
+        <v>2.2731103469938332</v>
       </c>
       <c r="AQ2">
-        <v>0.6422747977816694</v>
+        <v>0.64227479785525987</v>
       </c>
       <c r="AR2">
-        <v>1.9085977770391491</v>
+        <v>1.9085977851003495</v>
       </c>
       <c r="AS2">
-        <v>0.74750227181463813</v>
+        <v>0.74750227201576092</v>
       </c>
       <c r="AT2">
-        <v>-0.76010561040639613</v>
+        <v>-0.76010560998884491</v>
       </c>
       <c r="AU2">
-        <v>1.5964372929501924</v>
+        <v>1.5964372959658062</v>
       </c>
       <c r="AV2">
-        <v>-0.15939942536595675</v>
+        <v>-0.15939942487942585</v>
       </c>
       <c r="AW2">
-        <v>1.1596782662215559</v>
+        <v>1.1596782751734247</v>
       </c>
       <c r="AX2">
-        <v>-2.9074823926831517</v>
+        <v>-2.9074823923161026</v>
       </c>
       <c r="AY2">
-        <v>3.6826985576325835</v>
+        <v>3.6826985581286018</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>3.3870879614751637</v>
+      </c>
+      <c r="C3">
+        <v>1.3212247947300584</v>
+      </c>
+      <c r="D3">
+        <v>1.4777273694952904</v>
+      </c>
+      <c r="E3">
+        <v>-9.1343720509775537</v>
+      </c>
+      <c r="F3">
+        <v>7.119267590544835</v>
+      </c>
+      <c r="G3">
+        <v>0.49805760935366883</v>
+      </c>
+      <c r="H3">
+        <v>4.5769107860889857</v>
+      </c>
+      <c r="I3">
+        <v>1.8068919854245624</v>
+      </c>
+      <c r="J3">
+        <v>13.746927295138207</v>
+      </c>
+      <c r="K3">
+        <v>34.963223557480447</v>
+      </c>
+      <c r="L3">
+        <v>29.784491120059169</v>
+      </c>
+      <c r="M3">
+        <v>-2.0521783269616218</v>
+      </c>
+      <c r="N3">
         <v>28.480775705120902</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>4.1569834129557313</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-16.855646369142764</v>
+      </c>
+      <c r="Q3">
+        <v>-1.915057938801928</v>
+      </c>
+      <c r="R3">
+        <v>6.5977523756936236</v>
+      </c>
+      <c r="S3">
+        <v>6.7150792978057599</v>
+      </c>
+      <c r="T3">
+        <v>6.4590863819704607</v>
+      </c>
+      <c r="U3">
+        <v>-5.6226697050781498</v>
+      </c>
+      <c r="V3">
+        <v>6.2091974846181781</v>
+      </c>
+      <c r="W3">
+        <v>4.958119087358007</v>
+      </c>
+      <c r="X3">
+        <v>11.340124886071303</v>
+      </c>
+      <c r="Y3">
+        <v>32.294319573910826</v>
+      </c>
+      <c r="Z3">
+        <v>-0.24983364658123614</v>
+      </c>
+      <c r="AA3">
+        <v>2.989686533447391</v>
+      </c>
+      <c r="AB3">
+        <v>2.8767938940541837</v>
+      </c>
+      <c r="AC3">
+        <v>2.5171959398488744</v>
+      </c>
+      <c r="AD3">
+        <v>-7.7185818901570791</v>
+      </c>
+      <c r="AE3">
+        <v>-1.6575728102305489</v>
+      </c>
+      <c r="AF3">
+        <v>1.5634284794282229</v>
+      </c>
+      <c r="AG3">
+        <v>14.297924965106898</v>
+      </c>
+      <c r="AH3">
+        <v>7.9288350442111755</v>
+      </c>
+      <c r="AI3">
+        <v>1.6698342160940818</v>
+      </c>
+      <c r="AJ3">
+        <v>0.21208359195185822</v>
+      </c>
+      <c r="AK3">
+        <v>35.15054380206395</v>
+      </c>
+      <c r="AL3">
+        <v>0.16150425944419722</v>
+      </c>
+      <c r="AM3">
         <v>2.3063268374120849</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>2.532526546573743</v>
       </c>
-      <c r="F3">
-        <v>7.1192675843706459</v>
-      </c>
-      <c r="G3">
-        <v>0.4980576290326344</v>
-      </c>
-      <c r="H3">
-        <v>4.5769107778171554</v>
-      </c>
-      <c r="I3">
-        <v>1.8068919834806048</v>
-      </c>
-      <c r="J3">
-        <v>13.746927292184527</v>
-      </c>
-      <c r="K3">
-        <v>34.963223555375663</v>
-      </c>
-      <c r="L3">
-        <v>29.784491123295314</v>
-      </c>
-      <c r="M3">
-        <v>-2.0522337897213472</v>
-      </c>
-      <c r="N3">
-        <v>28.4807757087307</v>
-      </c>
-      <c r="O3">
-        <v>4.1569834099791825</v>
-      </c>
-      <c r="P3">
-        <v>-16.855646373125847</v>
-      </c>
-      <c r="Q3">
-        <v>-1.9150579391126736</v>
-      </c>
-      <c r="R3">
-        <v>6.5977523721303761</v>
-      </c>
-      <c r="S3">
-        <v>6.7150792966545154</v>
-      </c>
-      <c r="T3">
-        <v>6.4590863821201436</v>
-      </c>
-      <c r="U3">
-        <v>-5.6226697050527212</v>
-      </c>
-      <c r="V3">
-        <v>6.2091974815167008</v>
-      </c>
-      <c r="W3">
-        <v>4.9581190884991218</v>
-      </c>
-      <c r="X3">
-        <v>11.340124882020762</v>
-      </c>
-      <c r="Y3">
-        <v>32.294319570135471</v>
-      </c>
-      <c r="Z3">
-        <v>-0.2498336490801196</v>
-      </c>
-      <c r="AA3">
-        <v>2.9896865261487662</v>
-      </c>
-      <c r="AB3">
-        <v>2.8767938936364956</v>
-      </c>
-      <c r="AC3">
-        <v>2.5171959380134319</v>
-      </c>
-      <c r="AD3">
-        <v>-7.7185818908176422</v>
-      </c>
-      <c r="AE3">
-        <v>-1.6575728157340515</v>
-      </c>
-      <c r="AF3">
-        <v>1.5634284792142448</v>
-      </c>
-      <c r="AG3">
-        <v>14.297924966481332</v>
-      </c>
-      <c r="AH3">
-        <v>7.9288350437510395</v>
-      </c>
-      <c r="AI3">
-        <v>1.669834212116069</v>
-      </c>
-      <c r="AJ3">
-        <v>0.212083590673461</v>
-      </c>
-      <c r="AK3">
-        <v>35.150543810239085</v>
-      </c>
-      <c r="AL3">
-        <v>0.16150424973785507</v>
-      </c>
-      <c r="AM3">
-        <v>2.306326837286599</v>
-      </c>
-      <c r="AN3">
-        <v>2.5325265454795796</v>
-      </c>
       <c r="AO3">
-        <v>12.558446310348165</v>
+        <v>12.558446311805369</v>
       </c>
       <c r="AP3">
-        <v>-4.625152248636307</v>
+        <v>-4.6251522487972192</v>
       </c>
       <c r="AQ3">
-        <v>-2.1957966738044534E-2</v>
+        <v>-2.1957963716064517E-2</v>
       </c>
       <c r="AR3">
-        <v>-1.4320197062434725</v>
+        <v>-1.4320197053258683</v>
       </c>
       <c r="AS3">
-        <v>2.4895903065900296</v>
+        <v>2.4895903066737857</v>
       </c>
       <c r="AT3">
-        <v>-2.0672039388531922</v>
+        <v>-2.0672039214674665</v>
       </c>
       <c r="AU3">
-        <v>8.6055577461505731E-2</v>
+        <v>8.6055577375647591E-2</v>
       </c>
       <c r="AV3">
-        <v>-0.52106915503700435</v>
+        <v>-0.52106915675738086</v>
       </c>
       <c r="AW3">
-        <v>-1.5867666622525949</v>
+        <v>-1.5867666595735574</v>
       </c>
       <c r="AX3">
-        <v>-21.438317199394703</v>
+        <v>-21.438317197342037</v>
       </c>
       <c r="AY3">
-        <v>21.24489342707367</v>
+        <v>21.244893427407341</v>
       </c>
     </row>
   </sheetData>
